--- a/Praca/Testy.xlsx
+++ b/Praca/Testy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="14355" windowHeight="5205"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -426,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -586,7 +585,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,14 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BF57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -778,27 +776,27 @@
     <col min="5" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -806,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -820,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -858,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -890,7 +888,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -916,7 +914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -942,7 +940,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -992,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:58">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:58">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:58">
       <c r="T19" t="s">
         <v>23</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:58">
       <c r="T20" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:58">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:58">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:58">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:58">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:58">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:58">
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:58">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:58">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:58">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:58">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:58">
       <c r="C36" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:58">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:58">
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:58">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:58">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:58">
       <c r="B43" t="s">
         <v>111</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:58">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="45" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:58">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:58">
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:58">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:58">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:58">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:58">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -2716,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:58">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -2766,7 +2764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:58">
       <c r="B52" t="s">
         <v>17</v>
       </c>
@@ -2834,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:58">
       <c r="C53" t="s">
         <v>5</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:58">
       <c r="B54" t="s">
         <v>20</v>
       </c>
@@ -3054,7 +3052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:58">
       <c r="C55" s="2"/>
       <c r="I55" s="2"/>
       <c r="U55" s="2" t="s">
@@ -3139,7 +3137,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:58">
       <c r="B56" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:58">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -3239,24 +3237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
